--- a/Problems templates xlsx/M_template.xlsx
+++ b/Problems templates xlsx/M_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Problems templates xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7907D3F-D87F-43F6-8C5C-60A0A1ED252A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAFC1C-6B63-4A75-B475-23F5AFE6AAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1584" windowWidth="17712" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1368" windowWidth="26364" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M_template" sheetId="1" r:id="rId1"/>
@@ -896,10 +896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:CC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:CC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -908,1324 +908,2604 @@
     <col min="3" max="3" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">CONCATENATE("M ", B3, "_", B4, "_times_",B5,"_",B6)</f>
-        <v>M 5_3_times_3_2</v>
+        <v>M 9_6_times_4_4</v>
       </c>
       <c r="C1" t="str">
         <f ca="1">CONCATENATE("M ", C3, "_", C4, "_times_",C5,"_",C6)</f>
-        <v>M 1_1_times_7_3</v>
+        <v>M 9_1_times_3_1</v>
       </c>
       <c r="D1" t="str">
-        <f ca="1">CONCATENATE("M ", D3, "_", D4, "_plus_",D5,"_",D6)</f>
-        <v>M 7_10_plus_5_4</v>
+        <f ca="1">CONCATENATE("M ", D3, "_", D4, "_times_",D5,"_",D6)</f>
+        <v>M 7_7_times_10_6</v>
       </c>
       <c r="E1" t="str">
-        <f t="shared" ref="E1:R1" ca="1" si="0">CONCATENATE("M ", E3, "_", E4, "_plus_",E5,"_",E6)</f>
-        <v>M 7_9_plus_2_4</v>
+        <f ca="1">CONCATENATE("M ", E3, "_", E4, "_times_",E5,"_",E6)</f>
+        <v>M 3_5_times_6_5</v>
       </c>
       <c r="F1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>M 9_1_plus_2_5</v>
+        <f ca="1">CONCATENATE("M ", F3, "_", F4, "_times_",F5,"_",F6)</f>
+        <v>M 1_9_times_10_3</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>M 10_2_plus_8_2</v>
+        <f t="shared" ref="G1:BR1" ca="1" si="0">CONCATENATE("M ", G3, "_", G4, "_times_",G5,"_",G6)</f>
+        <v>M 8_6_times_9_9</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 4_8_plus_4_7</v>
+        <v>M 8_9_times_7_1</v>
       </c>
       <c r="I1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 2_8_plus_8_7</v>
+        <v>M 5_4_times_6_7</v>
       </c>
       <c r="J1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 5_1_plus_4_8</v>
+        <v>M 6_9_times_10_5</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 7_4_plus_10_9</v>
+        <v>M 5_6_times_7_6</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 4_3_plus_2_10</v>
+        <v>M 8_8_times_3_9</v>
       </c>
       <c r="M1" t="str">
-        <f ca="1">CONCATENATE("M ", M3, "_", M4, "_times_",M5,"_",M6)</f>
-        <v>M 6_8_times_1_5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>M 9_2_times_8_6</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 6_4_plus_2_8</v>
+        <v>M 5_3_times_7_5</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 1_2_plus_6_5</v>
+        <v>M 7_3_times_9_1</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 5_9_plus_2_6</v>
+        <v>M 5_10_times_3_9</v>
       </c>
       <c r="Q1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 8_2_plus_3_8</v>
+        <v>M 10_8_times_6_1</v>
       </c>
       <c r="R1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M 8_3_plus_8_9</v>
+        <v>M 3_8_times_8_7</v>
       </c>
       <c r="S1" t="str">
-        <f t="shared" ref="S1:AO1" ca="1" si="1">CONCATENATE("M ", S3, "_", S4, "_plus_",S5,"_",S6)</f>
-        <v>M 9_9_plus_2_2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_5_times_7_5</v>
       </c>
       <c r="T1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 4_7_times_10_1</v>
+      </c>
+      <c r="U1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_6_times_7_9</v>
+      </c>
+      <c r="V1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 6_2_times_2_6</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 4_3_times_1_3</v>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_3_times_7_10</v>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_7_times_5_5</v>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_3_times_9_2</v>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 3_10_times_9_1</v>
+      </c>
+      <c r="AB1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_7_times_9_9</v>
+      </c>
+      <c r="AC1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_3_times_9_2</v>
+      </c>
+      <c r="AD1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 1_10_times_2_9</v>
+      </c>
+      <c r="AE1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 9_2_times_4_4</v>
+      </c>
+      <c r="AF1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_2_times_5_8</v>
+      </c>
+      <c r="AG1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 6_10_times_6_2</v>
+      </c>
+      <c r="AH1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_9_times_8_10</v>
+      </c>
+      <c r="AI1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_3_times_2_2</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_8_times_8_4</v>
+      </c>
+      <c r="AK1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 4_4_times_10_10</v>
+      </c>
+      <c r="AL1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 4_10_times_5_5</v>
+      </c>
+      <c r="AM1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 3_9_times_3_5</v>
+      </c>
+      <c r="AN1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_9_times_6_9</v>
+      </c>
+      <c r="AO1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 6_6_times_6_10</v>
+      </c>
+      <c r="AP1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_7_times_2_2</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_2_times_10_9</v>
+      </c>
+      <c r="AR1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 1_6_times_6_1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 5_6_times_4_9</v>
+      </c>
+      <c r="AT1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 3_5_times_6_3</v>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 9_1_times_8_1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 8_7_times_3_5</v>
+      </c>
+      <c r="AW1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_6_times_9_8</v>
+      </c>
+      <c r="AX1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_3_times_9_5</v>
+      </c>
+      <c r="AY1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 5_2_times_10_6</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 8_10_times_9_6</v>
+      </c>
+      <c r="BA1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_8_times_5_2</v>
+      </c>
+      <c r="BB1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 6_4_times_10_9</v>
+      </c>
+      <c r="BC1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 5_3_times_6_6</v>
+      </c>
+      <c r="BD1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 9_6_times_4_9</v>
+      </c>
+      <c r="BE1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 8_1_times_10_10</v>
+      </c>
+      <c r="BF1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 5_8_times_7_4</v>
+      </c>
+      <c r="BG1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_3_times_4_3</v>
+      </c>
+      <c r="BH1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_4_times_5_5</v>
+      </c>
+      <c r="BI1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 4_5_times_7_2</v>
+      </c>
+      <c r="BJ1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 3_9_times_5_2</v>
+      </c>
+      <c r="BK1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 5_5_times_2_6</v>
+      </c>
+      <c r="BL1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 10_7_times_10_7</v>
+      </c>
+      <c r="BM1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_5_times_4_3</v>
+      </c>
+      <c r="BN1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 1_9_times_9_10</v>
+      </c>
+      <c r="BO1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 3_8_times_10_9</v>
+      </c>
+      <c r="BP1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 9_2_times_5_10</v>
+      </c>
+      <c r="BQ1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 2_5_times_2_3</v>
+      </c>
+      <c r="BR1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>M 7_8_times_10_7</v>
+      </c>
+      <c r="BS1" t="str">
+        <f t="shared" ref="BS1:CC1" ca="1" si="1">CONCATENATE("M ", BS3, "_", BS4, "_times_",BS5,"_",BS6)</f>
+        <v>M 3_5_times_6_7</v>
+      </c>
+      <c r="BT1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 2_4_plus_4_6</v>
-      </c>
-      <c r="U1" t="str">
+        <v>M 1_1_times_6_6</v>
+      </c>
+      <c r="BU1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 2_3_plus_1_2</v>
-      </c>
-      <c r="V1" t="str">
+        <v>M 7_2_times_3_2</v>
+      </c>
+      <c r="BV1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 6_1_plus_1_10</v>
-      </c>
-      <c r="W1" t="str">
+        <v>M 6_7_times_5_4</v>
+      </c>
+      <c r="BW1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 5_2_plus_4_10</v>
-      </c>
-      <c r="X1" t="str">
+        <v>M 8_4_times_8_6</v>
+      </c>
+      <c r="BX1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 8_10_plus_8_3</v>
-      </c>
-      <c r="Y1" t="str">
+        <v>M 10_2_times_8_3</v>
+      </c>
+      <c r="BY1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 1_7_plus_2_1</v>
-      </c>
-      <c r="Z1" t="str">
+        <v>M 9_6_times_3_4</v>
+      </c>
+      <c r="BZ1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 9_10_plus_1_8</v>
-      </c>
-      <c r="AA1" t="str">
+        <v>M 10_7_times_10_7</v>
+      </c>
+      <c r="CA1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 4_8_plus_9_7</v>
-      </c>
-      <c r="AB1" t="str">
+        <v>M 5_1_times_10_5</v>
+      </c>
+      <c r="CB1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 8_6_plus_6_4</v>
-      </c>
-      <c r="AC1" t="str">
+        <v>M 6_2_times_9_4</v>
+      </c>
+      <c r="CC1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M 4_9_plus_4_2</v>
-      </c>
-      <c r="AD1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 9_1_plus_6_6</v>
-      </c>
-      <c r="AE1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 7_6_plus_1_7</v>
-      </c>
-      <c r="AF1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 7_7_plus_7_10</v>
-      </c>
-      <c r="AG1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 1_2_plus_10_5</v>
-      </c>
-      <c r="AH1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 9_2_plus_10_4</v>
-      </c>
-      <c r="AI1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 4_3_plus_10_1</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 10_7_plus_5_3</v>
-      </c>
-      <c r="AK1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 2_9_plus_10_5</v>
-      </c>
-      <c r="AL1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 8_9_plus_8_9</v>
-      </c>
-      <c r="AM1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 7_4_plus_4_10</v>
-      </c>
-      <c r="AN1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 1_10_plus_10_10</v>
-      </c>
-      <c r="AO1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M 6_2_plus_9_5</v>
+        <v>M 9_10_times_5_7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2" ca="1" si="2">B1</f>
-        <v>M 5_3_times_3_2</v>
+        <v>M 9_6_times_4_4</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">C1</f>
-        <v>M 1_1_times_7_3</v>
+        <v>M 9_1_times_3_1</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2" ca="1" si="3">D1</f>
-        <v>M 7_10_plus_5_4</v>
+        <v>M 7_7_times_10_6</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2" ca="1" si="4">E1</f>
-        <v>M 7_9_plus_2_4</v>
+        <v>M 3_5_times_6_5</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2" ca="1" si="5">F1</f>
-        <v>M 9_1_plus_2_5</v>
+        <f t="shared" ref="F2:BQ2" ca="1" si="5">F1</f>
+        <v>M 1_9_times_10_3</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2" ca="1" si="6">G1</f>
-        <v>M 10_2_plus_8_2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_6_times_9_9</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2" ca="1" si="7">H1</f>
-        <v>M 4_8_plus_4_7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_9_times_7_1</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2" ca="1" si="8">I1</f>
-        <v>M 2_8_plus_8_7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_4_times_6_7</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2" ca="1" si="9">J1</f>
-        <v>M 5_1_plus_4_8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 6_9_times_10_5</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2" ca="1" si="10">K1</f>
-        <v>M 7_4_plus_10_9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_6_times_7_6</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2" ca="1" si="11">L1</f>
-        <v>M 4_3_plus_2_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_8_times_3_9</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2" ca="1" si="12">M1</f>
-        <v>M 6_8_times_1_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 9_2_times_8_6</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2" ca="1" si="13">N1</f>
-        <v>M 6_4_plus_2_8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_3_times_7_5</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2" ca="1" si="14">O1</f>
-        <v>M 1_2_plus_6_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_3_times_9_1</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2" ca="1" si="15">P1</f>
-        <v>M 5_9_plus_2_6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_10_times_3_9</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2" ca="1" si="16">Q1</f>
-        <v>M 8_2_plus_3_8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_8_times_6_1</v>
       </c>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:AO2" ca="1" si="17">R1</f>
-        <v>M 8_3_plus_8_9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_8_times_8_7</v>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 9_9_plus_2_2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_5_times_7_5</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 2_4_plus_4_6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 4_7_times_10_1</v>
       </c>
       <c r="U2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 2_3_plus_1_2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_6_times_7_9</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 6_1_plus_1_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 6_2_times_2_6</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 5_2_plus_4_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 4_3_times_1_3</v>
       </c>
       <c r="X2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 8_10_plus_8_3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_3_times_7_10</v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 1_7_plus_2_1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_7_times_5_5</v>
       </c>
       <c r="Z2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 9_10_plus_1_8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_3_times_9_2</v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 4_8_plus_9_7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_10_times_9_1</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 8_6_plus_6_4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_7_times_9_9</v>
       </c>
       <c r="AC2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 4_9_plus_4_2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_3_times_9_2</v>
       </c>
       <c r="AD2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 9_1_plus_6_6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 1_10_times_2_9</v>
       </c>
       <c r="AE2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 7_6_plus_1_7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 9_2_times_4_4</v>
       </c>
       <c r="AF2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 7_7_plus_7_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_2_times_5_8</v>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 1_2_plus_10_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 6_10_times_6_2</v>
       </c>
       <c r="AH2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 9_2_plus_10_4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_9_times_8_10</v>
       </c>
       <c r="AI2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 4_3_plus_10_1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_3_times_2_2</v>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 10_7_plus_5_3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_8_times_8_4</v>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 2_9_plus_10_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 4_4_times_10_10</v>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 8_9_plus_8_9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 4_10_times_5_5</v>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 7_4_plus_4_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_9_times_3_5</v>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 1_10_plus_10_10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_9_times_6_9</v>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>M 6_2_plus_9_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M 6_6_times_6_10</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_7_times_2_2</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_2_times_10_9</v>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 1_6_times_6_1</v>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_6_times_4_9</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_5_times_6_3</v>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 9_1_times_8_1</v>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_7_times_3_5</v>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_6_times_9_8</v>
+      </c>
+      <c r="AX2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_3_times_9_5</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_2_times_10_6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_10_times_9_6</v>
+      </c>
+      <c r="BA2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_8_times_5_2</v>
+      </c>
+      <c r="BB2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 6_4_times_10_9</v>
+      </c>
+      <c r="BC2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_3_times_6_6</v>
+      </c>
+      <c r="BD2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 9_6_times_4_9</v>
+      </c>
+      <c r="BE2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 8_1_times_10_10</v>
+      </c>
+      <c r="BF2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_8_times_7_4</v>
+      </c>
+      <c r="BG2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_3_times_4_3</v>
+      </c>
+      <c r="BH2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 7_4_times_5_5</v>
+      </c>
+      <c r="BI2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 4_5_times_7_2</v>
+      </c>
+      <c r="BJ2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_9_times_5_2</v>
+      </c>
+      <c r="BK2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 5_5_times_2_6</v>
+      </c>
+      <c r="BL2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 10_7_times_10_7</v>
+      </c>
+      <c r="BM2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_5_times_4_3</v>
+      </c>
+      <c r="BN2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 1_9_times_9_10</v>
+      </c>
+      <c r="BO2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 3_8_times_10_9</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 9_2_times_5_10</v>
+      </c>
+      <c r="BQ2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M 2_5_times_2_3</v>
+      </c>
+      <c r="BR2" t="str">
+        <f t="shared" ref="BR2:CC2" ca="1" si="6">BR1</f>
+        <v>M 7_8_times_10_7</v>
+      </c>
+      <c r="BS2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 3_5_times_6_7</v>
+      </c>
+      <c r="BT2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 1_1_times_6_6</v>
+      </c>
+      <c r="BU2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 7_2_times_3_2</v>
+      </c>
+      <c r="BV2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 6_7_times_5_4</v>
+      </c>
+      <c r="BW2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 8_4_times_8_6</v>
+      </c>
+      <c r="BX2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 10_2_times_8_3</v>
+      </c>
+      <c r="BY2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 9_6_times_3_4</v>
+      </c>
+      <c r="BZ2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 10_7_times_10_7</v>
+      </c>
+      <c r="CA2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 5_1_times_10_5</v>
+      </c>
+      <c r="CB2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 6_2_times_9_4</v>
+      </c>
+      <c r="CC2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M 9_10_times_5_7</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:S6" ca="1" si="18">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <f t="shared" ref="B3:S6" ca="1" si="7">RANDBETWEEN(1,10)</f>
+        <v>9</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="G3">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="P3">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:CC6" ca="1" si="8">RANDBETWEEN(1,10)</f>
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
       </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="V3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="X3">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="Y3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
       </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AD3">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AL3">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AS3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="R3">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AW3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="S3">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="S3:AO6" ca="1" si="19">RANDBETWEEN(1,10)</f>
+      <c r="BA3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="U3">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BN3">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="V3">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ca="1" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BR3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="Y3">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+      <c r="BX3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="CC3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:BR6" ca="1" si="9">RANDBETWEEN(1,10)</f>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="O4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AV4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BF4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BO4">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BQ4">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BS4">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BU4">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BV4">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BW4">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BX4">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BY4">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BZ4">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="CA4">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ca="1" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" ca="1" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+      <c r="CC4">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="D5">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="I5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="W5">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AE5">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AI5">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AT5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AV5">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BE5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="BL5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="CA5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="D6">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AA6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AD6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="18"/>
+      <c r="AU6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="AX6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BB6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="U5">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BG6">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="X5">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BW6">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="BZ6">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
       </c>
-      <c r="AG5">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" ca="1" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="19"/>
+      <c r="CA6">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AN5">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+      <c r="CC6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ca="1" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ca="1" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ca="1" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ca="1" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" ca="1" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" ca="1" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" ca="1" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" ca="1" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" ca="1" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" ca="1" si="19"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f ca="1">B3*B5</f>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <f ca="1">C3*C5</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:R7" ca="1" si="20">D3*D5</f>
+        <f t="shared" ref="D7:R7" ca="1" si="10">D3*D5</f>
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:BR7" ca="1" si="11">G3*G5</f>
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="11"/>
         <v>35</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="L7">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="11"/>
         <v>14</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="Y7">
+        <f t="shared" ca="1" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ca="1" si="11"/>
         <v>18</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="AA7">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ca="1" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" ca="1" si="11"/>
         <v>80</v>
       </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="AK7">
+        <f t="shared" ca="1" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" ca="1" si="11"/>
         <v>20</v>
       </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="AM7">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ca="1" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" ca="1" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" ca="1" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" ca="1" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" ca="1" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" ca="1" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" ca="1" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" ca="1" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" ca="1" si="11"/>
         <v>70</v>
       </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="20"/>
-        <v>24</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="20"/>
+      <c r="BS7">
+        <f t="shared" ref="BS7:CC7" ca="1" si="12">BS3*BS5</f>
+        <v>18</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" ca="1" si="12"/>
         <v>64</v>
       </c>
-      <c r="S7">
-        <f t="shared" ref="S7:AO7" ca="1" si="21">S3*S5</f>
-        <v>18</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ca="1" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" ca="1" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <f t="shared" ca="1" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ca="1" si="21"/>
-        <v>64</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" ca="1" si="21"/>
-        <v>36</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" ca="1" si="21"/>
-        <v>48</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" ca="1" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" ca="1" si="21"/>
+      <c r="BX7">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" ca="1" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" ca="1" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" ca="1" si="12"/>
         <v>54</v>
       </c>
-      <c r="AE7">
-        <f t="shared" ca="1" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" ca="1" si="21"/>
-        <v>49</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" ca="1" si="21"/>
-        <v>90</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" ca="1" si="21"/>
-        <v>40</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" ca="1" si="21"/>
-        <v>50</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" ca="1" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" ca="1" si="21"/>
-        <v>64</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" ca="1" si="21"/>
-        <v>28</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+      <c r="CC7">
+        <f t="shared" ca="1" si="12"/>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f ca="1">B4*B6</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <f ca="1">C4*C6</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:R8" ca="1" si="13">D4*D6</f>
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:BR8" ca="1" si="14">G4*G6</f>
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:R8" ca="1" si="22">D4*D6</f>
+      <c r="P8">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ca="1" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ca="1" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ca="1" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ca="1" si="14"/>
+        <v>63</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" ca="1" si="14"/>
         <v>40</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="22"/>
+      <c r="AL8">
+        <f t="shared" ca="1" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" ca="1" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ca="1" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" ca="1" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ca="1" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ca="1" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" ca="1" si="14"/>
         <v>36</v>
       </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="22"/>
+      <c r="BC8">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" ca="1" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" ca="1" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" ca="1" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" ca="1" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="BO8">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" ca="1" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" ref="BS8:CC8" ca="1" si="15">BS4*BS6</f>
+        <v>35</v>
+      </c>
+      <c r="BT8">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="22"/>
-        <v>56</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="22"/>
-        <v>56</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="22"/>
+      <c r="BV8">
+        <f t="shared" ca="1" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="BZ8">
+        <f t="shared" ca="1" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="CB8">
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="22"/>
-        <v>36</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="22"/>
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="22"/>
-        <v>40</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ca="1" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="22"/>
-        <v>27</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ref="S8:AO8" ca="1" si="23">S4*S6</f>
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ca="1" si="23"/>
-        <v>24</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="V8">
-        <f t="shared" ca="1" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="W8">
-        <f t="shared" ca="1" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="X8">
-        <f t="shared" ca="1" si="23"/>
-        <v>30</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" ca="1" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" ca="1" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" ca="1" si="23"/>
-        <v>56</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" ca="1" si="23"/>
-        <v>24</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" ca="1" si="23"/>
-        <v>18</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" ca="1" si="23"/>
-        <v>42</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" ca="1" si="23"/>
+      <c r="CC8">
+        <f t="shared" ca="1" si="15"/>
         <v>70</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" ca="1" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" ca="1" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" ca="1" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" ca="1" si="23"/>
-        <v>21</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" ca="1" si="23"/>
-        <v>45</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" ca="1" si="23"/>
-        <v>81</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" ca="1" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" ca="1" si="23"/>
-        <v>100</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" ca="1" si="23"/>
-        <v>10</v>
       </c>
     </row>
   </sheetData>
